--- a/doc/ue_asyncloading2.xlsx
+++ b/doc/ue_asyncloading2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FDC5AD-559E-45F3-8771-6B79C6C832DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E379C-F641-40FB-8014-C5C3E11230D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iostore " sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="iostore-iodispatcher " sheetId="6" r:id="rId3"/>
     <sheet name="TickAsyncThread" sheetId="3" r:id="rId4"/>
     <sheet name="FAsyncLoadingThread2" sheetId="4" r:id="rId5"/>
+    <sheet name="async read" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="182">
   <si>
     <t>bool bWasSuspendedLastFrame = false;</t>
   </si>
@@ -484,6 +485,183 @@
   </si>
   <si>
     <t>TUniquePtr&lt;IPlatformFileIoStore&gt; PlatformImpl</t>
+  </si>
+  <si>
+    <t>发起后读取的逻辑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 FRunnableThreadWin::Run()</t>
+  </si>
+  <si>
+    <t>uint32 FQueuedThread::Run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
+  </si>
+  <si>
+    <t>QueuedWork = nullptr;</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
+  </si>
+  <si>
+    <t>while (LocalQueuedWork)</t>
+  </si>
+  <si>
+    <t>// Tell the object to do the work</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
+  </si>
+  <si>
+    <t>// Let the object cleanup before we remove our ref to it</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
+  </si>
+  <si>
+    <t>不断的执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！这个QueuedWork是什么？何时赋值的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt;typename TTask&gt;</t>
+  </si>
+  <si>
+    <t>class FAsyncTask : private IQueuedWork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void DoThreadedWork() override</t>
+  </si>
+  <si>
+    <t>DoWork();</t>
+  </si>
+  <si>
+    <t>FinishThreadedWork();</t>
+  </si>
+  <si>
+    <t>阻塞读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DoWork()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(InheritedLLMTag);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
+  </si>
+  <si>
+    <t>Task.DoWork();</t>
+  </si>
+  <si>
+    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
+  </si>
+  <si>
+    <t>WorkNotFinishedCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>阻塞读取逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FGenericReadRequestWorker::DoWork()</t>
+  </si>
+  <si>
+    <t>ReadRequest.PerformRequest();</t>
+  </si>
+  <si>
+    <t>void FGenericReadRequest::PerformRequest()</t>
+  </si>
+  <si>
+    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetComplete();</t>
+  </si>
+  <si>
+    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
+  </si>
+  <si>
+    <t>这个回调的函数是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncFileCallBack CallbackFromLower =</t>
+  </si>
+  <si>
+    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
+  </si>
+  <si>
+    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>堆栈分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* IORequestHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*Filename);</t>
+  </si>
+  <si>
+    <t>开始异步读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
+  </si>
+  <si>
+    <t>创建一个Request，不同平台不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGenericReadRequest构造函数里面会调用Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start();</t>
+  </si>
+  <si>
+    <t>其内部会吧自己注册到线程池里面等待结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,6 +798,55 @@
         <a:xfrm>
           <a:off x="6496050" y="2657475"/>
           <a:ext cx="11600000" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>303114</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02B2925-3B2E-F897-EA9D-30077733A565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935200" y="6438900"/>
+          <a:ext cx="13485714" cy="6885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBFB09-3082-4798-A69A-FD74D3FD7429}">
   <dimension ref="B6:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1749,4 +1976,345 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB3384-BE7C-41B2-BF5B-7C5502A141A8}">
+  <dimension ref="B2:V76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E64" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>162</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>